--- a/Code/Results/Cases/Case_9_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003229076743621</v>
+        <v>1.003202478504273</v>
       </c>
       <c r="D2">
-        <v>1.023376223975613</v>
+        <v>1.022936480867193</v>
       </c>
       <c r="E2">
-        <v>1.019110453033393</v>
+        <v>1.01908964404368</v>
       </c>
       <c r="F2">
-        <v>1.029894852172982</v>
+        <v>1.029863657994167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04548086922626</v>
+        <v>1.045314287595929</v>
       </c>
       <c r="J2">
-        <v>1.025313633773842</v>
+        <v>1.025287824091322</v>
       </c>
       <c r="K2">
-        <v>1.034519220683565</v>
+        <v>1.034085261060258</v>
       </c>
       <c r="L2">
-        <v>1.030309817338525</v>
+        <v>1.030289284768925</v>
       </c>
       <c r="M2">
-        <v>1.040952841052081</v>
+        <v>1.040922050462071</v>
       </c>
       <c r="N2">
-        <v>1.012290666201613</v>
+        <v>1.013865259337612</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040983817044256</v>
+        <v>1.040959448372647</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035478318629789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035180279245259</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021159105035161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006717168974631</v>
+        <v>1.006569343604225</v>
       </c>
       <c r="D3">
-        <v>1.025654325082318</v>
+        <v>1.025049983156363</v>
       </c>
       <c r="E3">
-        <v>1.021806800908279</v>
+        <v>1.021687664508963</v>
       </c>
       <c r="F3">
-        <v>1.032519365782645</v>
+        <v>1.03240987894533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046043640046025</v>
+        <v>1.045807131605865</v>
       </c>
       <c r="J3">
-        <v>1.027026377208542</v>
+        <v>1.026882509758359</v>
       </c>
       <c r="K3">
-        <v>1.03596914838438</v>
+        <v>1.035372071668865</v>
       </c>
       <c r="L3">
-        <v>1.032168060289749</v>
+        <v>1.032050368691397</v>
       </c>
       <c r="M3">
-        <v>1.042752399280505</v>
+        <v>1.042644206292059</v>
       </c>
       <c r="N3">
-        <v>1.012875233391265</v>
+        <v>1.014297793057868</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042408044367869</v>
+        <v>1.042322417092472</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036500875457452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036087220749791</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021404055728129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008937891830443</v>
+        <v>1.008713695335606</v>
       </c>
       <c r="D4">
-        <v>1.027107650720451</v>
+        <v>1.026399055532407</v>
       </c>
       <c r="E4">
-        <v>1.02352942022662</v>
+        <v>1.023348265635472</v>
       </c>
       <c r="F4">
-        <v>1.034196838548522</v>
+        <v>1.034037986704535</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046392682770702</v>
+        <v>1.046111837612628</v>
       </c>
       <c r="J4">
-        <v>1.028115696167652</v>
+        <v>1.027897100133192</v>
       </c>
       <c r="K4">
-        <v>1.036889558582012</v>
+        <v>1.036188974788347</v>
       </c>
       <c r="L4">
-        <v>1.033351923541842</v>
+        <v>1.033172833484024</v>
       </c>
       <c r="M4">
-        <v>1.043899339337304</v>
+        <v>1.043742252147302</v>
       </c>
       <c r="N4">
-        <v>1.013246894358564</v>
+        <v>1.014572934229959</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043315767561217</v>
+        <v>1.04319144405529</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037152588449672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036665826897083</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02155720679828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009865756427715</v>
+        <v>1.009609815463615</v>
       </c>
       <c r="D5">
-        <v>1.027717770574906</v>
+        <v>1.026965770048593</v>
       </c>
       <c r="E5">
-        <v>1.024250745175715</v>
+        <v>1.024043795274108</v>
       </c>
       <c r="F5">
-        <v>1.034899010623852</v>
+        <v>1.03471963100101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046537654313134</v>
+        <v>1.046238329647678</v>
       </c>
       <c r="J5">
-        <v>1.028571868399799</v>
+        <v>1.028322131625049</v>
       </c>
       <c r="K5">
-        <v>1.037276279924241</v>
+        <v>1.036532557963733</v>
       </c>
       <c r="L5">
-        <v>1.033847546454125</v>
+        <v>1.033642892317009</v>
       </c>
       <c r="M5">
-        <v>1.044379207003787</v>
+        <v>1.044201767319476</v>
       </c>
       <c r="N5">
-        <v>1.013402760777942</v>
+        <v>1.014688386148842</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043695549070037</v>
+        <v>1.043555118062339</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03743323019002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036916677036626</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021621497233989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010024376629334</v>
+        <v>1.009762994290904</v>
       </c>
       <c r="D6">
-        <v>1.027824803785211</v>
+        <v>1.027065423099226</v>
       </c>
       <c r="E6">
-        <v>1.024374352509517</v>
+        <v>1.024162978077458</v>
       </c>
       <c r="F6">
-        <v>1.035018832423304</v>
+        <v>1.034835933601008</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046563995285329</v>
+        <v>1.046261516180666</v>
       </c>
       <c r="J6">
-        <v>1.028651441289613</v>
+        <v>1.028396362763551</v>
       </c>
       <c r="K6">
-        <v>1.037345789693114</v>
+        <v>1.036594730978368</v>
       </c>
       <c r="L6">
-        <v>1.033933273627126</v>
+        <v>1.033724233316401</v>
       </c>
       <c r="M6">
-        <v>1.04446172243678</v>
+        <v>1.044280792611267</v>
       </c>
       <c r="N6">
-        <v>1.013430263614215</v>
+        <v>1.014708796417898</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043760854211986</v>
+        <v>1.043617661015996</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037491154245719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036970282104919</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021633642065314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008959236816114</v>
+        <v>1.008741424021087</v>
       </c>
       <c r="D7">
-        <v>1.027128884863123</v>
+        <v>1.026424552911568</v>
       </c>
       <c r="E7">
-        <v>1.023546588035618</v>
+        <v>1.023370717183825</v>
       </c>
       <c r="F7">
-        <v>1.03421216655346</v>
+        <v>1.034057445307448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046400560520319</v>
+        <v>1.04612174445008</v>
       </c>
       <c r="J7">
-        <v>1.028130500241714</v>
+        <v>1.027918126097401</v>
       </c>
       <c r="K7">
-        <v>1.036907657491181</v>
+        <v>1.03621128562974</v>
       </c>
       <c r="L7">
-        <v>1.033365986806575</v>
+        <v>1.03319211950667</v>
       </c>
       <c r="M7">
-        <v>1.043911628180823</v>
+        <v>1.04375862505924</v>
       </c>
       <c r="N7">
-        <v>1.01325281444075</v>
+        <v>1.014605177913594</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043325493319055</v>
+        <v>1.043204402069053</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037185567984278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036703783275607</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021563411347508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004426673794877</v>
+        <v>1.004380311295186</v>
       </c>
       <c r="D8">
-        <v>1.024166614630296</v>
+        <v>1.023686366267478</v>
       </c>
       <c r="E8">
-        <v>1.020035733010888</v>
+        <v>1.019999284950983</v>
       </c>
       <c r="F8">
-        <v>1.03079358404633</v>
+        <v>1.030749713260138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045681558684077</v>
+        <v>1.045498528006009</v>
       </c>
       <c r="J8">
-        <v>1.025907242310373</v>
+        <v>1.025862208593748</v>
       </c>
       <c r="K8">
-        <v>1.035028889127849</v>
+        <v>1.034554771582215</v>
       </c>
       <c r="L8">
-        <v>1.030950978099217</v>
+        <v>1.030914999803701</v>
       </c>
       <c r="M8">
-        <v>1.041571986645402</v>
+        <v>1.041528666671698</v>
       </c>
       <c r="N8">
-        <v>1.012494424756353</v>
+        <v>1.014100571626018</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041473828774066</v>
+        <v>1.041439543964826</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035861695954551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035537527521072</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021252462437096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9961361536795837</v>
+        <v>0.9963863942049753</v>
       </c>
       <c r="D9">
-        <v>1.018762077036108</v>
+        <v>1.018678759079737</v>
       </c>
       <c r="E9">
-        <v>1.013661693431105</v>
+        <v>1.013865390115041</v>
       </c>
       <c r="F9">
-        <v>1.0245954173712</v>
+        <v>1.024742896120128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044287742137954</v>
+        <v>1.044273236831301</v>
       </c>
       <c r="J9">
-        <v>1.02182609601956</v>
+        <v>1.022067406724187</v>
       </c>
       <c r="K9">
-        <v>1.031557913908569</v>
+        <v>1.031475885010215</v>
       </c>
       <c r="L9">
-        <v>1.026536940688944</v>
+        <v>1.026737446328428</v>
       </c>
       <c r="M9">
-        <v>1.037301667983151</v>
+        <v>1.037446898663546</v>
       </c>
       <c r="N9">
-        <v>1.011099891838982</v>
+        <v>1.013079831189993</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03809415449971</v>
+        <v>1.038209095221895</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033404279322941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033357068289773</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020651879323714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9904560129756693</v>
+        <v>0.9909451191134416</v>
       </c>
       <c r="D10">
-        <v>1.015087731547501</v>
+        <v>1.015301316572969</v>
       </c>
       <c r="E10">
-        <v>1.0093635253643</v>
+        <v>1.00976049502614</v>
       </c>
       <c r="F10">
-        <v>1.020468753437824</v>
+        <v>1.020770192615249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043304069025431</v>
+        <v>1.043416308797082</v>
       </c>
       <c r="J10">
-        <v>1.019053478253157</v>
+        <v>1.019522657901984</v>
       </c>
       <c r="K10">
-        <v>1.029189813007979</v>
+        <v>1.029399689648238</v>
       </c>
       <c r="L10">
-        <v>1.023565751757037</v>
+        <v>1.023955728941541</v>
       </c>
       <c r="M10">
-        <v>1.03447801790155</v>
+        <v>1.034774294969895</v>
       </c>
       <c r="N10">
-        <v>1.010156152525088</v>
+        <v>1.012509033937276</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035911012908278</v>
+        <v>1.036145483104664</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0317467610278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031907626562851</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020241461459278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9883997834589574</v>
+        <v>0.989013126721569</v>
       </c>
       <c r="D11">
-        <v>1.01382570816099</v>
+        <v>1.014169225716165</v>
       </c>
       <c r="E11">
-        <v>1.008087813773827</v>
+        <v>1.008584690472338</v>
       </c>
       <c r="F11">
-        <v>1.019636008882242</v>
+        <v>1.020017017445731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043069560094744</v>
+        <v>1.043236940904696</v>
       </c>
       <c r="J11">
-        <v>1.018263236407075</v>
+        <v>1.018850224656697</v>
       </c>
       <c r="K11">
-        <v>1.028491518394683</v>
+        <v>1.028828788332958</v>
       </c>
       <c r="L11">
-        <v>1.022858800724526</v>
+        <v>1.02334650789648</v>
       </c>
       <c r="M11">
-        <v>1.034196882080301</v>
+        <v>1.034571063682535</v>
       </c>
       <c r="N11">
-        <v>1.009921208649921</v>
+        <v>1.012580769955933</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036125920656448</v>
+        <v>1.036421893863072</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031286039069382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031540190333682</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020160473441605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9877948400536773</v>
+        <v>0.9884460864078481</v>
       </c>
       <c r="D12">
-        <v>1.013477963210592</v>
+        <v>1.013858053076623</v>
       </c>
       <c r="E12">
-        <v>1.007833149887636</v>
+        <v>1.008359696677258</v>
       </c>
       <c r="F12">
-        <v>1.019680227005321</v>
+        <v>1.020084996019287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043055132726548</v>
+        <v>1.043237090127124</v>
       </c>
       <c r="J12">
-        <v>1.018124879465616</v>
+        <v>1.018747607594883</v>
       </c>
       <c r="K12">
-        <v>1.028351423309027</v>
+        <v>1.028724484992029</v>
       </c>
       <c r="L12">
-        <v>1.022811802216371</v>
+        <v>1.023328471670011</v>
       </c>
       <c r="M12">
-        <v>1.034439854139996</v>
+        <v>1.034837256852288</v>
       </c>
       <c r="N12">
-        <v>1.009901495148903</v>
+        <v>1.012674505809666</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036645222000277</v>
+        <v>1.036959455976969</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031186986388508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031466445415932</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020162333725298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9882773721572994</v>
+        <v>0.9888915438252033</v>
       </c>
       <c r="D13">
-        <v>1.013825257085598</v>
+        <v>1.014164056181658</v>
       </c>
       <c r="E13">
-        <v>1.008357969982513</v>
+        <v>1.008853156409873</v>
       </c>
       <c r="F13">
-        <v>1.020421307835402</v>
+        <v>1.020801383686849</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043220708637126</v>
+        <v>1.043383197947795</v>
       </c>
       <c r="J13">
-        <v>1.018491806556341</v>
+        <v>1.019079218133069</v>
       </c>
       <c r="K13">
-        <v>1.028649133920686</v>
+        <v>1.028981694547339</v>
       </c>
       <c r="L13">
-        <v>1.023283275163994</v>
+        <v>1.023769215876888</v>
       </c>
       <c r="M13">
-        <v>1.03512469704389</v>
+        <v>1.035497891888946</v>
       </c>
       <c r="N13">
-        <v>1.010051599249902</v>
+        <v>1.012759379366843</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03746386825574</v>
+        <v>1.037758886214557</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031394974504375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031645551612282</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020232029634763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9891080470049649</v>
+        <v>0.9896628643996647</v>
       </c>
       <c r="D14">
-        <v>1.014384832833292</v>
+        <v>1.014659963517355</v>
       </c>
       <c r="E14">
-        <v>1.009077325776522</v>
+        <v>1.009523508097877</v>
       </c>
       <c r="F14">
-        <v>1.021254140959796</v>
+        <v>1.021595475301849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043418303228068</v>
+        <v>1.043552107080443</v>
       </c>
       <c r="J14">
-        <v>1.01897738328464</v>
+        <v>1.019508373038734</v>
       </c>
       <c r="K14">
-        <v>1.029057097015464</v>
+        <v>1.029327224049567</v>
       </c>
       <c r="L14">
-        <v>1.023846810624289</v>
+        <v>1.024284768681927</v>
       </c>
       <c r="M14">
-        <v>1.035802524333228</v>
+        <v>1.036137759481308</v>
       </c>
       <c r="N14">
-        <v>1.01023366899266</v>
+        <v>1.012816064014473</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038173227066415</v>
+        <v>1.038438201284574</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03168485199229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031891419228715</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020312105187459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9895518258984302</v>
+        <v>0.9900764368714293</v>
       </c>
       <c r="D15">
-        <v>1.014678390236464</v>
+        <v>1.014921395740568</v>
       </c>
       <c r="E15">
-        <v>1.009430967621644</v>
+        <v>1.009852459600119</v>
       </c>
       <c r="F15">
-        <v>1.021624258377807</v>
+        <v>1.021946034408916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0435090798672</v>
+        <v>1.043628703391064</v>
       </c>
       <c r="J15">
-        <v>1.019212051288007</v>
+        <v>1.019714328318655</v>
       </c>
       <c r="K15">
-        <v>1.029258282339657</v>
+        <v>1.029496901767033</v>
       </c>
       <c r="L15">
-        <v>1.024106242754843</v>
+        <v>1.024520025555362</v>
       </c>
       <c r="M15">
-        <v>1.036079849678609</v>
+        <v>1.036395920445985</v>
       </c>
       <c r="N15">
-        <v>1.010317431249572</v>
+        <v>1.012832758847385</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038430001893632</v>
+        <v>1.038679821753109</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031832996927145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032017854929447</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020348451692002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99185970726932</v>
+        <v>0.9922419410736413</v>
       </c>
       <c r="D16">
-        <v>1.016165599971092</v>
+        <v>1.016255381669716</v>
       </c>
       <c r="E16">
-        <v>1.011151083841706</v>
+        <v>1.011457297670877</v>
       </c>
       <c r="F16">
-        <v>1.023258072157802</v>
+        <v>1.023488319973541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043908193523245</v>
+        <v>1.043961714232126</v>
       </c>
       <c r="J16">
-        <v>1.02032222732764</v>
+        <v>1.020688998557306</v>
       </c>
       <c r="K16">
-        <v>1.030213148304297</v>
+        <v>1.030301379742178</v>
       </c>
       <c r="L16">
-        <v>1.025285784007277</v>
+        <v>1.025586643780545</v>
       </c>
       <c r="M16">
-        <v>1.037184236586037</v>
+        <v>1.037410580221992</v>
       </c>
       <c r="N16">
-        <v>1.010690633492969</v>
+        <v>1.01288605258069</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039264147460389</v>
+        <v>1.039443052806367</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032511309468165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03259013451479</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020504465577031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9931976581784966</v>
+        <v>0.9935099163478849</v>
       </c>
       <c r="D17">
-        <v>1.017015952876099</v>
+        <v>1.017027478659033</v>
       </c>
       <c r="E17">
-        <v>1.012095796882141</v>
+        <v>1.012345799885348</v>
       </c>
       <c r="F17">
-        <v>1.024071482420399</v>
+        <v>1.024256984309396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044108722247604</v>
+        <v>1.044129150056323</v>
       </c>
       <c r="J17">
-        <v>1.020919773649851</v>
+        <v>1.021219803964025</v>
       </c>
       <c r="K17">
-        <v>1.030732066761349</v>
+        <v>1.030743399083052</v>
       </c>
       <c r="L17">
-        <v>1.025895015542569</v>
+        <v>1.026140770676637</v>
       </c>
       <c r="M17">
-        <v>1.037670216750905</v>
+        <v>1.037852660600783</v>
       </c>
       <c r="N17">
-        <v>1.010881545468658</v>
+        <v>1.01292633508667</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039519096504097</v>
+        <v>1.039663317199816</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03288080788763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032905508541918</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020583172416314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.993814181767263</v>
+        <v>0.9941024206279452</v>
       </c>
       <c r="D18">
-        <v>1.017381541987828</v>
+        <v>1.017365165908595</v>
       </c>
       <c r="E18">
-        <v>1.012433200613909</v>
+        <v>1.012664503179855</v>
       </c>
       <c r="F18">
-        <v>1.024204321761995</v>
+        <v>1.024374745846229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044148886848834</v>
+        <v>1.044158359840822</v>
       </c>
       <c r="J18">
-        <v>1.021112936102064</v>
+        <v>1.021390097923741</v>
       </c>
       <c r="K18">
-        <v>1.030906843819078</v>
+        <v>1.030890738125045</v>
       </c>
       <c r="L18">
-        <v>1.026040717308995</v>
+        <v>1.026268153802082</v>
       </c>
       <c r="M18">
-        <v>1.03761793887479</v>
+        <v>1.037785597679321</v>
       </c>
       <c r="N18">
-        <v>1.01092590324655</v>
+        <v>1.012915805650223</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039239761096954</v>
+        <v>1.039372322000744</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.0329926932254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032996859647473</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020595851917515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9937882535153596</v>
+        <v>0.9940873606997565</v>
       </c>
       <c r="D19">
-        <v>1.017326933754968</v>
+        <v>1.017323215522133</v>
       </c>
       <c r="E19">
-        <v>1.012224556036587</v>
+        <v>1.012465591312075</v>
       </c>
       <c r="F19">
-        <v>1.02371923837667</v>
+        <v>1.023897121578109</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044054458038183</v>
+        <v>1.044070603512241</v>
       </c>
       <c r="J19">
-        <v>1.02095199173975</v>
+        <v>1.021239670887669</v>
       </c>
       <c r="K19">
-        <v>1.03079016057966</v>
+        <v>1.030786503418003</v>
       </c>
       <c r="L19">
-        <v>1.02577213198959</v>
+        <v>1.026009157990631</v>
       </c>
       <c r="M19">
-        <v>1.037078315040475</v>
+        <v>1.037253323853559</v>
       </c>
       <c r="N19">
-        <v>1.010845214293536</v>
+        <v>1.012844715169359</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038487024809855</v>
+        <v>1.038625442430245</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032916617628911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032930209954372</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020554192471374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9919502249528531</v>
+        <v>0.992355585752577</v>
       </c>
       <c r="D20">
-        <v>1.016070653127177</v>
+        <v>1.016191090029864</v>
       </c>
       <c r="E20">
-        <v>1.010495162486569</v>
+        <v>1.010823921857574</v>
       </c>
       <c r="F20">
-        <v>1.021554017774559</v>
+        <v>1.021801267100887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043577725564128</v>
+        <v>1.04364931290699</v>
       </c>
       <c r="J20">
-        <v>1.01979501784321</v>
+        <v>1.020184400770163</v>
       </c>
       <c r="K20">
-        <v>1.029836685417332</v>
+        <v>1.029955090432795</v>
       </c>
       <c r="L20">
-        <v>1.024355943794156</v>
+        <v>1.024679078813526</v>
       </c>
       <c r="M20">
-        <v>1.035228165909672</v>
+        <v>1.035471302030866</v>
       </c>
       <c r="N20">
-        <v>1.010411346133707</v>
+        <v>1.012591590194239</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036494096015343</v>
+        <v>1.036686513416242</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032246406026458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032346692610095</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020354208776967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9876059568154356</v>
+        <v>0.9882968673924418</v>
       </c>
       <c r="D21">
-        <v>1.013253052273842</v>
+        <v>1.01367734229784</v>
       </c>
       <c r="E21">
-        <v>1.007167788073262</v>
+        <v>1.007730088402693</v>
       </c>
       <c r="F21">
-        <v>1.018285189234536</v>
+        <v>1.018717940859323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04278327165381</v>
+        <v>1.042988634932241</v>
       </c>
       <c r="J21">
-        <v>1.017631165637243</v>
+        <v>1.018292173825601</v>
       </c>
       <c r="K21">
-        <v>1.027987617631414</v>
+        <v>1.028404145050748</v>
       </c>
       <c r="L21">
-        <v>1.022014625155053</v>
+        <v>1.022566477015597</v>
       </c>
       <c r="M21">
-        <v>1.032928230721869</v>
+        <v>1.033353166406082</v>
       </c>
       <c r="N21">
-        <v>1.009668316114413</v>
+        <v>1.01249338651819</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034632852114691</v>
+        <v>1.034969162904541</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030942275706365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031253678253794</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020044801137955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9848433552583978</v>
+        <v>0.9857154832083974</v>
       </c>
       <c r="D22">
-        <v>1.011462822805533</v>
+        <v>1.012080300239952</v>
       </c>
       <c r="E22">
-        <v>1.005076140001273</v>
+        <v>1.005786763515898</v>
       </c>
       <c r="F22">
-        <v>1.016257282268179</v>
+        <v>1.016808123296195</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042272596816358</v>
+        <v>1.042563187721186</v>
       </c>
       <c r="J22">
-        <v>1.016263510324896</v>
+        <v>1.017095698267138</v>
       </c>
       <c r="K22">
-        <v>1.026810568533724</v>
+        <v>1.027416183442934</v>
       </c>
       <c r="L22">
-        <v>1.02054770384576</v>
+        <v>1.021244448576289</v>
       </c>
       <c r="M22">
-        <v>1.031513415364865</v>
+        <v>1.032053803250748</v>
       </c>
       <c r="N22">
-        <v>1.009199403458349</v>
+        <v>1.012425934219072</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033513110517624</v>
+        <v>1.033940795366268</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030096465171782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030540265417887</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019845951670723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9863043780639964</v>
+        <v>0.9870688188903621</v>
       </c>
       <c r="D23">
-        <v>1.01240288175595</v>
+        <v>1.01290917344885</v>
       </c>
       <c r="E23">
-        <v>1.006180797633998</v>
+        <v>1.006803048541423</v>
       </c>
       <c r="F23">
-        <v>1.017329475253011</v>
+        <v>1.017809974146682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042539676681753</v>
+        <v>1.042780904287628</v>
       </c>
       <c r="J23">
-        <v>1.016982996443996</v>
+        <v>1.017713453934512</v>
       </c>
       <c r="K23">
-        <v>1.027425359198744</v>
+        <v>1.027922170783936</v>
       </c>
       <c r="L23">
-        <v>1.021320800176655</v>
+        <v>1.021931212278703</v>
       </c>
       <c r="M23">
-        <v>1.032260226765677</v>
+        <v>1.032731841427596</v>
       </c>
       <c r="N23">
-        <v>1.00944512698227</v>
+        <v>1.012416847913662</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0341041672237</v>
+        <v>1.03447742185985</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030521466329938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030887395040169</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019945880514337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9919652350728063</v>
+        <v>0.9923708630519098</v>
       </c>
       <c r="D24">
-        <v>1.01606505460429</v>
+        <v>1.016185725628404</v>
       </c>
       <c r="E24">
-        <v>1.010478794979147</v>
+        <v>1.010807905670356</v>
       </c>
       <c r="F24">
-        <v>1.021501333686332</v>
+        <v>1.021748833794176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043562052759585</v>
+        <v>1.0436339726572</v>
       </c>
       <c r="J24">
-        <v>1.019776123758453</v>
+        <v>1.020165786528526</v>
       </c>
       <c r="K24">
-        <v>1.029815803578455</v>
+        <v>1.029934441349909</v>
       </c>
       <c r="L24">
-        <v>1.024324356701406</v>
+        <v>1.024647844035246</v>
       </c>
       <c r="M24">
-        <v>1.035161097640905</v>
+        <v>1.035404485102352</v>
       </c>
       <c r="N24">
-        <v>1.010400487777403</v>
+        <v>1.012579297215696</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036400028902874</v>
+        <v>1.036592654837743</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032204102392274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032301883510341</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020345365075112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983295731381391</v>
+        <v>0.9984914724878637</v>
       </c>
       <c r="D25">
-        <v>1.020199772613082</v>
+        <v>1.020004525542739</v>
       </c>
       <c r="E25">
-        <v>1.015343227871779</v>
+        <v>1.015475300195095</v>
       </c>
       <c r="F25">
-        <v>1.026227577347518</v>
+        <v>1.026318050022798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044671552575596</v>
+        <v>1.044609161735129</v>
       </c>
       <c r="J25">
-        <v>1.022913284879597</v>
+        <v>1.023069711471346</v>
       </c>
       <c r="K25">
-        <v>1.032492401824732</v>
+        <v>1.032300035840252</v>
       </c>
       <c r="L25">
-        <v>1.027707939223982</v>
+        <v>1.027838039694326</v>
       </c>
       <c r="M25">
-        <v>1.03843194368174</v>
+        <v>1.038521101614367</v>
       </c>
       <c r="N25">
-        <v>1.011473000561537</v>
+        <v>1.013320220106684</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038988694371874</v>
+        <v>1.039059257042567</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034093736570181</v>
+        <v>1.033971311008981</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020816276728088</v>
       </c>
     </row>
   </sheetData>
